--- a/SQL ETL/Data to Load/Healthcare Data.xlsx
+++ b/SQL ETL/Data to Load/Healthcare Data.xlsx
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>142</v>
+        <v>344</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5996,6 +5996,9 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L53" s="1"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="L57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
